--- a/docs/excel/TurnBrand.xlsx
+++ b/docs/excel/TurnBrand.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -95,29 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Image/GameScene/Pass/pass_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_3</t>
-  </si>
-  <si>
-    <t>绣女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作弊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泼水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TableName: "TurnBrand" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,10 +116,6 @@
   </si>
   <si>
     <t>uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -172,23 +145,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Weight</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侍卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太监</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太医</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/1_round.png</t>
+  </si>
+  <si>
+    <t>Image/Head/2_round.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/5_round.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵妃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/4_round.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/6_round.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/3_round.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -597,14 +621,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="50" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.09765625" customWidth="1"/>
@@ -612,7 +636,7 @@
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -620,26 +644,26 @@
         <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="F1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -650,28 +674,28 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -682,1177 +706,1196 @@
         <v>21</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="G4" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>10</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>500</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>1001</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10"/>
+      <c r="B10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>300</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17"/>
       <c r="B17"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25"/>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27"/>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28"/>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30"/>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31"/>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="B35"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="B37"/>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38"/>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="B39"/>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40"/>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41"/>
       <c r="B41"/>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42"/>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43"/>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45"/>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47"/>
       <c r="B47"/>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48"/>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49"/>
       <c r="B49"/>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50"/>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51"/>
       <c r="B51"/>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52"/>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53"/>
       <c r="B53"/>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55"/>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56"/>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57"/>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58"/>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60"/>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61"/>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64"/>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65"/>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66"/>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67"/>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68"/>
       <c r="B68"/>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69"/>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="B70"/>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71"/>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72"/>
       <c r="B72"/>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73"/>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74"/>
       <c r="B74"/>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75"/>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="B76"/>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78"/>
       <c r="B78"/>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="B80"/>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82"/>
       <c r="B82"/>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83"/>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84"/>
       <c r="B84"/>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85"/>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86"/>
       <c r="B86"/>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87"/>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88"/>
       <c r="B88"/>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90"/>
       <c r="B90"/>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92"/>
       <c r="B92"/>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93"/>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94"/>
       <c r="B94"/>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95"/>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96"/>
       <c r="B96"/>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98"/>
       <c r="B98"/>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100"/>
       <c r="B100"/>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101"/>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102"/>
       <c r="B102"/>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103"/>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104"/>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105"/>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106"/>
       <c r="B106"/>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107"/>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108"/>
       <c r="B108"/>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109"/>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110"/>
       <c r="B110"/>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111"/>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112"/>
       <c r="B112"/>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113"/>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114"/>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115"/>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116"/>
       <c r="B116"/>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117"/>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118"/>
       <c r="B118"/>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119"/>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120"/>
       <c r="B120"/>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121"/>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122"/>
       <c r="B122"/>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123"/>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124"/>
       <c r="B124"/>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125"/>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126"/>
       <c r="B126"/>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127"/>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128"/>
       <c r="B128"/>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129"/>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130"/>
       <c r="B130"/>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131"/>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132"/>
       <c r="B132"/>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133"/>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134"/>
       <c r="B134"/>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135"/>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136"/>
       <c r="B136"/>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137"/>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138"/>
       <c r="B138"/>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139"/>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140"/>
       <c r="B140"/>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141"/>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142"/>
       <c r="B142"/>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143"/>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144"/>
       <c r="B144"/>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145"/>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146"/>
       <c r="B146"/>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147"/>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148"/>
       <c r="B148"/>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149"/>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150"/>
       <c r="B150"/>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151"/>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152"/>
       <c r="B152"/>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153"/>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154"/>
       <c r="B154"/>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155"/>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156"/>
       <c r="B156"/>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157"/>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158"/>
       <c r="B158"/>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159"/>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160"/>
       <c r="B160"/>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161"/>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162"/>
       <c r="B162"/>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163"/>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164"/>
       <c r="B164"/>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165"/>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166"/>
       <c r="B166"/>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167"/>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168"/>
       <c r="B168"/>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169"/>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170"/>
       <c r="B170"/>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171"/>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172"/>
       <c r="B172"/>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173"/>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174"/>
       <c r="B174"/>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175"/>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176"/>
       <c r="B176"/>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177"/>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178"/>
       <c r="B178"/>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179"/>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180"/>
       <c r="B180"/>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181"/>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182"/>
       <c r="B182"/>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183"/>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184"/>
       <c r="B184"/>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185"/>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186"/>
       <c r="B186"/>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187"/>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188"/>
       <c r="B188"/>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189"/>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190"/>
       <c r="B190"/>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191"/>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192"/>
       <c r="B192"/>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193"/>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194"/>
       <c r="B194"/>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195"/>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196"/>
       <c r="B196"/>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197"/>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198"/>
       <c r="B198"/>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199"/>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200"/>
       <c r="B200"/>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201"/>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202"/>
       <c r="B202"/>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203"/>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204"/>
       <c r="B204"/>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205"/>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206"/>
       <c r="B206"/>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207"/>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208"/>
       <c r="B208"/>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209"/>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210"/>
       <c r="B210"/>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211"/>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212"/>
       <c r="B212"/>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213"/>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214"/>
       <c r="B214"/>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215"/>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216"/>
       <c r="B216"/>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217"/>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218"/>
       <c r="B218"/>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219"/>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220"/>
       <c r="B220"/>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221"/>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222"/>
       <c r="B222"/>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223"/>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224"/>
       <c r="B224"/>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225"/>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226"/>
       <c r="B226"/>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227"/>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228"/>
       <c r="B228"/>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229"/>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230"/>
       <c r="B230"/>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231"/>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232"/>
       <c r="B232"/>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233"/>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234"/>
       <c r="B234"/>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235"/>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236"/>
       <c r="B236"/>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237"/>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238"/>
       <c r="B238"/>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239"/>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240"/>
       <c r="B240"/>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241"/>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242"/>
       <c r="B242"/>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243"/>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244"/>
       <c r="B244"/>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245"/>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246"/>
       <c r="B246"/>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247"/>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248"/>
       <c r="B248"/>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249"/>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250"/>
       <c r="B250"/>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251"/>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252"/>
       <c r="B252"/>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253"/>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254"/>
       <c r="B254"/>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255"/>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256"/>
       <c r="B256"/>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257"/>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258"/>
       <c r="B258"/>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259"/>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260"/>
       <c r="B260"/>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261"/>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262"/>
       <c r="B262"/>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263"/>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264"/>
       <c r="B264"/>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265"/>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266"/>
       <c r="B266"/>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267"/>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268"/>
       <c r="B268"/>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269"/>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270"/>
       <c r="B270"/>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271"/>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272"/>
       <c r="B272"/>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273"/>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274"/>
       <c r="B274"/>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275"/>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276"/>
       <c r="B276"/>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277"/>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278"/>
       <c r="B278"/>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279"/>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280"/>
       <c r="B280"/>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281"/>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282"/>
       <c r="B282"/>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283"/>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284"/>
       <c r="B284"/>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285"/>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286"/>
       <c r="B286"/>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287"/>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288"/>
       <c r="B288"/>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289"/>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290"/>
       <c r="B290"/>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291"/>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292"/>
       <c r="B292"/>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293"/>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294"/>
       <c r="B294"/>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295"/>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296"/>
       <c r="B296"/>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297"/>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298"/>
       <c r="B298"/>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299"/>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300"/>
       <c r="B300"/>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301"/>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302"/>
       <c r="B302"/>
     </row>
-    <row r="303" spans="1:2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303"/>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304"/>
       <c r="B304"/>
     </row>
@@ -1868,24 +1911,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="70" style="3" customWidth="1"/>
     <col min="2" max="8" width="8.796875" style="3"/>
     <col min="9" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1911,7 +1954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>

--- a/docs/excel/TurnBrand.xlsx
+++ b/docs/excel/TurnBrand.xlsx
@@ -127,10 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>u</t>
     </r>
@@ -205,6 +201,10 @@
   </si>
   <si>
     <t>Image/Head/3_round.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -625,7 +625,7 @@
   <dimension ref="A1:I304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -650,7 +650,7 @@
         <v>26</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>28</v>
@@ -659,7 +659,7 @@
         <v>30</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I1" s="6"/>
     </row>
@@ -677,7 +677,7 @@
         <v>29</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>18</v>
@@ -709,16 +709,16 @@
         <v>27</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>31</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -726,10 +726,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -752,10 +752,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -778,10 +778,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -804,10 +804,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -830,10 +830,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -852,12 +852,14 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10"/>
+      <c r="A10">
+        <v>6</v>
+      </c>
       <c r="B10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10">
         <v>1</v>

--- a/docs/excel/TurnBrand.xlsx
+++ b/docs/excel/TurnBrand.xlsx
@@ -625,7 +625,7 @@
   <dimension ref="A1:I304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -793,7 +793,7 @@
         <v>500</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>30</v>
@@ -819,7 +819,7 @@
         <v>1000</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>20</v>
@@ -845,7 +845,7 @@
         <v>200</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>80</v>
@@ -871,7 +871,7 @@
         <v>300</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>60</v>

--- a/docs/excel/TurnBrand.xlsx
+++ b/docs/excel/TurnBrand.xlsx
@@ -625,7 +625,7 @@
   <dimension ref="A1:I304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B7" sqref="B7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -770,7 +770,7 @@
         <v>14</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">

--- a/docs/excel/TurnBrand.xlsx
+++ b/docs/excel/TurnBrand.xlsx
@@ -177,34 +177,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Image/Head/1_round.png</t>
-  </si>
-  <si>
-    <t>Image/Head/2_round.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/5_round.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>贵妃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Image/Head/4_round.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/6_round.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/3_round.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RewardId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/2_round</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/1_round</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/5_round</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/4_round</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/3_round</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/6_round</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -625,7 +626,7 @@
   <dimension ref="A1:I304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:H7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -650,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>28</v>
@@ -729,7 +730,7 @@
         <v>36</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -755,7 +756,7 @@
         <v>35</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -781,7 +782,7 @@
         <v>37</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -804,10 +805,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -859,7 +860,7 @@
         <v>39</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D10">
         <v>1</v>

--- a/docs/excel/TurnBrand.xlsx
+++ b/docs/excel/TurnBrand.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -206,6 +206,10 @@
   </si>
   <si>
     <t>Image/Head/6_round</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -626,7 +630,7 @@
   <dimension ref="A1:I304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -662,7 +666,9 @@
       <c r="H1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="6"/>
+      <c r="I1" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -747,6 +753,9 @@
       <c r="H5">
         <v>50</v>
       </c>
+      <c r="I5">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -773,6 +782,9 @@
       <c r="H6">
         <v>10</v>
       </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -785,18 +797,21 @@
         <v>46</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>10001</v>
       </c>
       <c r="F7">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7">
         <v>30</v>
       </c>
     </row>
@@ -811,18 +826,21 @@
         <v>47</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>10001</v>
       </c>
       <c r="F8">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
+        <v>80</v>
+      </c>
+      <c r="I8">
         <v>20</v>
       </c>
     </row>
@@ -851,6 +869,9 @@
       <c r="H9">
         <v>80</v>
       </c>
+      <c r="I9">
+        <v>80</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -875,6 +896,9 @@
         <v>0</v>
       </c>
       <c r="H10">
+        <v>60</v>
+      </c>
+      <c r="I10">
         <v>60</v>
       </c>
     </row>

--- a/docs/excel/TurnBrand.xlsx
+++ b/docs/excel/TurnBrand.xlsx
@@ -630,7 +630,7 @@
   <dimension ref="A1:I304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -803,7 +803,7 @@
         <v>10001</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>10001</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="I8">
         <v>20</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -890,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>300</v>
+        <v>30000</v>
       </c>
       <c r="G10">
         <v>0</v>

--- a/docs/excel/TurnBrand.xlsx
+++ b/docs/excel/TurnBrand.xlsx
@@ -10,7 +10,7 @@
     <sheet name="TurnBrand" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -630,7 +630,7 @@
   <dimension ref="A1:I304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="I5">
         <v>50</v>
@@ -780,7 +780,7 @@
         <v>14</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I6">
         <v>10</v>
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I7">
         <v>30</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I8">
         <v>20</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="I9">
         <v>80</v>
@@ -890,13 +890,13 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I10">
         <v>60</v>

--- a/docs/excel/TurnBrand.xlsx
+++ b/docs/excel/TurnBrand.xlsx
@@ -630,7 +630,7 @@
   <dimension ref="A1:I304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>20000</v>
+        <v>20000000</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -890,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>50000</v>
+        <v>50000000</v>
       </c>
       <c r="G10">
         <v>0</v>

--- a/docs/excel/TurnBrand.xlsx
+++ b/docs/excel/TurnBrand.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
@@ -10,7 +10,7 @@
     <sheet name="TurnBrand" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -216,8 +216,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -626,14 +626,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="50" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.09765625" customWidth="1"/>
@@ -641,7 +641,7 @@
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -670,7 +670,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -697,12 +697,12 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -728,7 +728,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>1</v>
       </c>
@@ -757,7 +757,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>2</v>
       </c>
@@ -786,7 +786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>3</v>
       </c>
@@ -815,7 +815,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>4</v>
       </c>
@@ -844,7 +844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>5</v>
       </c>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>20000000</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>6</v>
       </c>
@@ -890,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>50000000</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -902,1027 +902,1027 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11"/>
       <c r="B11"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12"/>
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13"/>
       <c r="B13"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14"/>
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16"/>
       <c r="B16"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17"/>
       <c r="B17"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19"/>
       <c r="B19"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20"/>
       <c r="B20"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22"/>
       <c r="B22"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24"/>
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26"/>
       <c r="B26"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32"/>
       <c r="B32"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35"/>
       <c r="B35"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37"/>
       <c r="B37"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39"/>
       <c r="B39"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41"/>
       <c r="B41"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43"/>
       <c r="B43"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45"/>
       <c r="B45"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47"/>
       <c r="B47"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49"/>
       <c r="B49"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51"/>
       <c r="B51"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53"/>
       <c r="B53"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2">
       <c r="A65"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2">
       <c r="A66"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2">
       <c r="A67"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2">
       <c r="A68"/>
       <c r="B68"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2">
       <c r="A69"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2">
       <c r="A70"/>
       <c r="B70"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2">
       <c r="A71"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2">
       <c r="A72"/>
       <c r="B72"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2">
       <c r="A73"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2">
       <c r="A74"/>
       <c r="B74"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2">
       <c r="A75"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2">
       <c r="A76"/>
       <c r="B76"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2">
       <c r="A78"/>
       <c r="B78"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2">
       <c r="A80"/>
       <c r="B80"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2">
       <c r="A82"/>
       <c r="B82"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2">
       <c r="A83"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2">
       <c r="A84"/>
       <c r="B84"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2">
       <c r="A85"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2">
       <c r="A86"/>
       <c r="B86"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2">
       <c r="A87"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2">
       <c r="A88"/>
       <c r="B88"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2">
       <c r="A90"/>
       <c r="B90"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2">
       <c r="A92"/>
       <c r="B92"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2">
       <c r="A93"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2">
       <c r="A94"/>
       <c r="B94"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2">
       <c r="A95"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2">
       <c r="A96"/>
       <c r="B96"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2">
       <c r="A98"/>
       <c r="B98"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2">
       <c r="A100"/>
       <c r="B100"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2">
       <c r="A101"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2">
       <c r="A102"/>
       <c r="B102"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2">
       <c r="A103"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2">
       <c r="A104"/>
       <c r="B104"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2">
       <c r="A105"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2">
       <c r="A106"/>
       <c r="B106"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2">
       <c r="A107"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2">
       <c r="A108"/>
       <c r="B108"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2">
       <c r="A109"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2">
       <c r="A110"/>
       <c r="B110"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2">
       <c r="A111"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2">
       <c r="A112"/>
       <c r="B112"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2">
       <c r="A113"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2">
       <c r="A114"/>
       <c r="B114"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2">
       <c r="A115"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2">
       <c r="A116"/>
       <c r="B116"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2">
       <c r="A117"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2">
       <c r="A118"/>
       <c r="B118"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2">
       <c r="A119"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2">
       <c r="A120"/>
       <c r="B120"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2">
       <c r="A121"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2">
       <c r="A122"/>
       <c r="B122"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2">
       <c r="A123"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2">
       <c r="A124"/>
       <c r="B124"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2">
       <c r="A125"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2">
       <c r="A126"/>
       <c r="B126"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2">
       <c r="A127"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2">
       <c r="A128"/>
       <c r="B128"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2">
       <c r="A129"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2">
       <c r="A130"/>
       <c r="B130"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2">
       <c r="A131"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2">
       <c r="A132"/>
       <c r="B132"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2">
       <c r="A133"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2">
       <c r="A134"/>
       <c r="B134"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2">
       <c r="A135"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2">
       <c r="A136"/>
       <c r="B136"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2">
       <c r="A137"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2">
       <c r="A138"/>
       <c r="B138"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2">
       <c r="A139"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2">
       <c r="A140"/>
       <c r="B140"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2">
       <c r="A141"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2">
       <c r="A142"/>
       <c r="B142"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2">
       <c r="A143"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2">
       <c r="A144"/>
       <c r="B144"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2">
       <c r="A145"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2">
       <c r="A146"/>
       <c r="B146"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2">
       <c r="A147"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2">
       <c r="A148"/>
       <c r="B148"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2">
       <c r="A149"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2">
       <c r="A150"/>
       <c r="B150"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2">
       <c r="A151"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2">
       <c r="A152"/>
       <c r="B152"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2">
       <c r="A153"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2">
       <c r="A154"/>
       <c r="B154"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2">
       <c r="A155"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2">
       <c r="A156"/>
       <c r="B156"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2">
       <c r="A157"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2">
       <c r="A158"/>
       <c r="B158"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2">
       <c r="A159"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2">
       <c r="A160"/>
       <c r="B160"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2">
       <c r="A161"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2">
       <c r="A162"/>
       <c r="B162"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2">
       <c r="A163"/>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2">
       <c r="A164"/>
       <c r="B164"/>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2">
       <c r="A165"/>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2">
       <c r="A166"/>
       <c r="B166"/>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2">
       <c r="A167"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2">
       <c r="A168"/>
       <c r="B168"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2">
       <c r="A169"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2">
       <c r="A170"/>
       <c r="B170"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2">
       <c r="A171"/>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2">
       <c r="A172"/>
       <c r="B172"/>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2">
       <c r="A173"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2">
       <c r="A174"/>
       <c r="B174"/>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2">
       <c r="A175"/>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2">
       <c r="A176"/>
       <c r="B176"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2">
       <c r="A177"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2">
       <c r="A178"/>
       <c r="B178"/>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2">
       <c r="A179"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2">
       <c r="A180"/>
       <c r="B180"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2">
       <c r="A181"/>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2">
       <c r="A182"/>
       <c r="B182"/>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2">
       <c r="A183"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2">
       <c r="A184"/>
       <c r="B184"/>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2">
       <c r="A185"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2">
       <c r="A186"/>
       <c r="B186"/>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2">
       <c r="A187"/>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2">
       <c r="A188"/>
       <c r="B188"/>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2">
       <c r="A189"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2">
       <c r="A190"/>
       <c r="B190"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2">
       <c r="A191"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2">
       <c r="A192"/>
       <c r="B192"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2">
       <c r="A193"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2">
       <c r="A194"/>
       <c r="B194"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2">
       <c r="A195"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2">
       <c r="A196"/>
       <c r="B196"/>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2">
       <c r="A197"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2">
       <c r="A198"/>
       <c r="B198"/>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2">
       <c r="A199"/>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2">
       <c r="A200"/>
       <c r="B200"/>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2">
       <c r="A201"/>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2">
       <c r="A202"/>
       <c r="B202"/>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2">
       <c r="A203"/>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2">
       <c r="A204"/>
       <c r="B204"/>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2">
       <c r="A205"/>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2">
       <c r="A206"/>
       <c r="B206"/>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2">
       <c r="A207"/>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2">
       <c r="A208"/>
       <c r="B208"/>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2">
       <c r="A209"/>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2">
       <c r="A210"/>
       <c r="B210"/>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2">
       <c r="A211"/>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2">
       <c r="A212"/>
       <c r="B212"/>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2">
       <c r="A213"/>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2">
       <c r="A214"/>
       <c r="B214"/>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2">
       <c r="A215"/>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2">
       <c r="A216"/>
       <c r="B216"/>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2">
       <c r="A217"/>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2">
       <c r="A218"/>
       <c r="B218"/>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2">
       <c r="A219"/>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2">
       <c r="A220"/>
       <c r="B220"/>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2">
       <c r="A221"/>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2">
       <c r="A222"/>
       <c r="B222"/>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2">
       <c r="A223"/>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2">
       <c r="A224"/>
       <c r="B224"/>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2">
       <c r="A225"/>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2">
       <c r="A226"/>
       <c r="B226"/>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2">
       <c r="A227"/>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2">
       <c r="A228"/>
       <c r="B228"/>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2">
       <c r="A229"/>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2">
       <c r="A230"/>
       <c r="B230"/>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2">
       <c r="A231"/>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2">
       <c r="A232"/>
       <c r="B232"/>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2">
       <c r="A233"/>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2">
       <c r="A234"/>
       <c r="B234"/>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2">
       <c r="A235"/>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2">
       <c r="A236"/>
       <c r="B236"/>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2">
       <c r="A237"/>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2">
       <c r="A238"/>
       <c r="B238"/>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2">
       <c r="A239"/>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2">
       <c r="A240"/>
       <c r="B240"/>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2">
       <c r="A241"/>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2">
       <c r="A242"/>
       <c r="B242"/>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2">
       <c r="A243"/>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2">
       <c r="A244"/>
       <c r="B244"/>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2">
       <c r="A245"/>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2">
       <c r="A246"/>
       <c r="B246"/>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2">
       <c r="A247"/>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2">
       <c r="A248"/>
       <c r="B248"/>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2">
       <c r="A249"/>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2">
       <c r="A250"/>
       <c r="B250"/>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2">
       <c r="A251"/>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2">
       <c r="A252"/>
       <c r="B252"/>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2">
       <c r="A253"/>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2">
       <c r="A254"/>
       <c r="B254"/>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2">
       <c r="A255"/>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2">
       <c r="A256"/>
       <c r="B256"/>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2">
       <c r="A257"/>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2">
       <c r="A258"/>
       <c r="B258"/>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2">
       <c r="A259"/>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2">
       <c r="A260"/>
       <c r="B260"/>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2">
       <c r="A261"/>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2">
       <c r="A262"/>
       <c r="B262"/>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2">
       <c r="A263"/>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2">
       <c r="A264"/>
       <c r="B264"/>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2">
       <c r="A265"/>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2">
       <c r="A266"/>
       <c r="B266"/>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2">
       <c r="A267"/>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2">
       <c r="A268"/>
       <c r="B268"/>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2">
       <c r="A269"/>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2">
       <c r="A270"/>
       <c r="B270"/>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2">
       <c r="A271"/>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2">
       <c r="A272"/>
       <c r="B272"/>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2">
       <c r="A273"/>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2">
       <c r="A274"/>
       <c r="B274"/>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2">
       <c r="A275"/>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2">
       <c r="A276"/>
       <c r="B276"/>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2">
       <c r="A277"/>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2">
       <c r="A278"/>
       <c r="B278"/>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2">
       <c r="A279"/>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2">
       <c r="A280"/>
       <c r="B280"/>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2">
       <c r="A281"/>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2">
       <c r="A282"/>
       <c r="B282"/>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2">
       <c r="A283"/>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2">
       <c r="A284"/>
       <c r="B284"/>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2">
       <c r="A285"/>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2">
       <c r="A286"/>
       <c r="B286"/>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2">
       <c r="A287"/>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2">
       <c r="A288"/>
       <c r="B288"/>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2">
       <c r="A289"/>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2">
       <c r="A290"/>
       <c r="B290"/>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2">
       <c r="A291"/>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2">
       <c r="A292"/>
       <c r="B292"/>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2">
       <c r="A293"/>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2">
       <c r="A294"/>
       <c r="B294"/>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2">
       <c r="A295"/>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2">
       <c r="A296"/>
       <c r="B296"/>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2">
       <c r="A297"/>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2">
       <c r="A298"/>
       <c r="B298"/>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2">
       <c r="A299"/>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2">
       <c r="A300"/>
       <c r="B300"/>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2">
       <c r="A301"/>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2">
       <c r="A302"/>
       <c r="B302"/>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2">
       <c r="A303"/>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2">
       <c r="A304"/>
       <c r="B304"/>
     </row>
@@ -1938,24 +1938,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="70" style="3" customWidth="1"/>
     <col min="2" max="8" width="8.796875" style="3"/>
     <col min="9" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>

--- a/docs/excel/TurnBrand.xlsx
+++ b/docs/excel/TurnBrand.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
@@ -10,7 +10,7 @@
     <sheet name="TurnBrand" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -216,8 +216,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -626,14 +626,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="50" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.09765625" customWidth="1"/>
@@ -641,7 +641,7 @@
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -670,7 +670,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -697,12 +697,12 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -728,7 +728,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -757,7 +757,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -780,13 +780,13 @@
         <v>14</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -797,25 +797,25 @@
         <v>46</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>10001</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I7">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -844,7 +844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -873,7 +873,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -902,1027 +902,1027 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17"/>
       <c r="B17"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25"/>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27"/>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28"/>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30"/>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31"/>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="B35"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="B37"/>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38"/>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="B39"/>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40"/>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41"/>
       <c r="B41"/>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42"/>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43"/>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45"/>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47"/>
       <c r="B47"/>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48"/>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49"/>
       <c r="B49"/>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50"/>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51"/>
       <c r="B51"/>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52"/>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53"/>
       <c r="B53"/>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55"/>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56"/>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57"/>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58"/>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60"/>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61"/>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64"/>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65"/>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66"/>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67"/>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68"/>
       <c r="B68"/>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69"/>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="B70"/>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71"/>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72"/>
       <c r="B72"/>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73"/>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74"/>
       <c r="B74"/>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75"/>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="B76"/>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78"/>
       <c r="B78"/>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="B80"/>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82"/>
       <c r="B82"/>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83"/>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84"/>
       <c r="B84"/>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85"/>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86"/>
       <c r="B86"/>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87"/>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88"/>
       <c r="B88"/>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90"/>
       <c r="B90"/>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92"/>
       <c r="B92"/>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93"/>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94"/>
       <c r="B94"/>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95"/>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96"/>
       <c r="B96"/>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98"/>
       <c r="B98"/>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100"/>
       <c r="B100"/>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101"/>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102"/>
       <c r="B102"/>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103"/>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104"/>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105"/>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106"/>
       <c r="B106"/>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107"/>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108"/>
       <c r="B108"/>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109"/>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110"/>
       <c r="B110"/>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111"/>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112"/>
       <c r="B112"/>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113"/>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114"/>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115"/>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116"/>
       <c r="B116"/>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117"/>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118"/>
       <c r="B118"/>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119"/>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120"/>
       <c r="B120"/>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121"/>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122"/>
       <c r="B122"/>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123"/>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124"/>
       <c r="B124"/>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125"/>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126"/>
       <c r="B126"/>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127"/>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128"/>
       <c r="B128"/>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129"/>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130"/>
       <c r="B130"/>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131"/>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132"/>
       <c r="B132"/>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133"/>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134"/>
       <c r="B134"/>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135"/>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136"/>
       <c r="B136"/>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137"/>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138"/>
       <c r="B138"/>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139"/>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140"/>
       <c r="B140"/>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141"/>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142"/>
       <c r="B142"/>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143"/>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144"/>
       <c r="B144"/>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145"/>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146"/>
       <c r="B146"/>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147"/>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148"/>
       <c r="B148"/>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149"/>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150"/>
       <c r="B150"/>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151"/>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152"/>
       <c r="B152"/>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153"/>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154"/>
       <c r="B154"/>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155"/>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156"/>
       <c r="B156"/>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157"/>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158"/>
       <c r="B158"/>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159"/>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160"/>
       <c r="B160"/>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161"/>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162"/>
       <c r="B162"/>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163"/>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164"/>
       <c r="B164"/>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165"/>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166"/>
       <c r="B166"/>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167"/>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168"/>
       <c r="B168"/>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169"/>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170"/>
       <c r="B170"/>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171"/>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172"/>
       <c r="B172"/>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173"/>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174"/>
       <c r="B174"/>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175"/>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176"/>
       <c r="B176"/>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177"/>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178"/>
       <c r="B178"/>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179"/>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180"/>
       <c r="B180"/>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181"/>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182"/>
       <c r="B182"/>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183"/>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184"/>
       <c r="B184"/>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185"/>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186"/>
       <c r="B186"/>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187"/>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188"/>
       <c r="B188"/>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189"/>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190"/>
       <c r="B190"/>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191"/>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192"/>
       <c r="B192"/>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193"/>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194"/>
       <c r="B194"/>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195"/>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196"/>
       <c r="B196"/>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197"/>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198"/>
       <c r="B198"/>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199"/>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200"/>
       <c r="B200"/>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201"/>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202"/>
       <c r="B202"/>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203"/>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204"/>
       <c r="B204"/>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205"/>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206"/>
       <c r="B206"/>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207"/>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208"/>
       <c r="B208"/>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209"/>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210"/>
       <c r="B210"/>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211"/>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212"/>
       <c r="B212"/>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213"/>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214"/>
       <c r="B214"/>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215"/>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216"/>
       <c r="B216"/>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217"/>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218"/>
       <c r="B218"/>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219"/>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220"/>
       <c r="B220"/>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221"/>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222"/>
       <c r="B222"/>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223"/>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224"/>
       <c r="B224"/>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225"/>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226"/>
       <c r="B226"/>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227"/>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228"/>
       <c r="B228"/>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229"/>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230"/>
       <c r="B230"/>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231"/>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232"/>
       <c r="B232"/>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233"/>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234"/>
       <c r="B234"/>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235"/>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236"/>
       <c r="B236"/>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237"/>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238"/>
       <c r="B238"/>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239"/>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240"/>
       <c r="B240"/>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241"/>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242"/>
       <c r="B242"/>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243"/>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244"/>
       <c r="B244"/>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245"/>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246"/>
       <c r="B246"/>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247"/>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248"/>
       <c r="B248"/>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249"/>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250"/>
       <c r="B250"/>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251"/>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252"/>
       <c r="B252"/>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253"/>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254"/>
       <c r="B254"/>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255"/>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256"/>
       <c r="B256"/>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257"/>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258"/>
       <c r="B258"/>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259"/>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260"/>
       <c r="B260"/>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261"/>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262"/>
       <c r="B262"/>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263"/>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264"/>
       <c r="B264"/>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265"/>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266"/>
       <c r="B266"/>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267"/>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268"/>
       <c r="B268"/>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269"/>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270"/>
       <c r="B270"/>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271"/>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272"/>
       <c r="B272"/>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273"/>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274"/>
       <c r="B274"/>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275"/>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276"/>
       <c r="B276"/>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277"/>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278"/>
       <c r="B278"/>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279"/>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280"/>
       <c r="B280"/>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281"/>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282"/>
       <c r="B282"/>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283"/>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284"/>
       <c r="B284"/>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285"/>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286"/>
       <c r="B286"/>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287"/>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288"/>
       <c r="B288"/>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289"/>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290"/>
       <c r="B290"/>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291"/>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292"/>
       <c r="B292"/>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293"/>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294"/>
       <c r="B294"/>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295"/>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296"/>
       <c r="B296"/>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297"/>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298"/>
       <c r="B298"/>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299"/>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300"/>
       <c r="B300"/>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301"/>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302"/>
       <c r="B302"/>
     </row>
-    <row r="303" spans="1:2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303"/>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304"/>
       <c r="B304"/>
     </row>
@@ -1938,24 +1938,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="70" style="3" customWidth="1"/>
     <col min="2" max="8" width="8.796875" style="3"/>
     <col min="9" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>

--- a/docs/excel/TurnBrand.xlsx
+++ b/docs/excel/TurnBrand.xlsx
@@ -630,7 +630,7 @@
   <dimension ref="A1:I304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G6">
         <v>14</v>

--- a/docs/excel/TurnBrand.xlsx
+++ b/docs/excel/TurnBrand.xlsx
@@ -630,7 +630,7 @@
   <dimension ref="A1:I304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I5">
         <v>50</v>
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I7">
         <v>30</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I8">
         <v>20</v>

--- a/docs/excel/TurnBrand.xlsx
+++ b/docs/excel/TurnBrand.xlsx
@@ -630,7 +630,7 @@
   <dimension ref="A1:I304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -754,7 +754,7 @@
         <v>10</v>
       </c>
       <c r="I5">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -783,7 +783,7 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -812,7 +812,7 @@
         <v>10</v>
       </c>
       <c r="I7">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -838,10 +838,10 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>108</v>
+      </c>
+      <c r="I8">
         <v>8</v>
-      </c>
-      <c r="I8">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -870,7 +870,7 @@
         <v>40</v>
       </c>
       <c r="I9">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -899,7 +899,7 @@
         <v>30</v>
       </c>
       <c r="I10">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">

--- a/docs/excel/TurnBrand.xlsx
+++ b/docs/excel/TurnBrand.xlsx
@@ -630,7 +630,7 @@
   <dimension ref="A1:I304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -832,7 +832,7 @@
         <v>10001</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G8">
         <v>0</v>

--- a/docs/excel/TurnBrand.xlsx
+++ b/docs/excel/TurnBrand.xlsx
@@ -630,7 +630,7 @@
   <dimension ref="A1:I304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -832,13 +832,13 @@
         <v>10001</v>
       </c>
       <c r="F8">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="I8">
         <v>8</v>

--- a/docs/excel/TurnBrand.xlsx
+++ b/docs/excel/TurnBrand.xlsx
@@ -107,10 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>奖励类型(1 金币 2 体力 3 侍女 4 道具 5 小游戏事件)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -210,6 +206,10 @@
   </si>
   <si>
     <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励类型(1 金币 2 体力 3 侍女 4 道具 5 小游戏事件6小游戏币)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -630,14 +630,14 @@
   <dimension ref="A1:I304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="50" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.09765625" customWidth="1"/>
-    <col min="4" max="4" width="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.8984375" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -655,19 +655,19 @@
         <v>26</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -681,19 +681,19 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="6"/>
     </row>
@@ -713,19 +713,19 @@
         <v>21</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -733,10 +733,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -762,10 +762,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -791,10 +791,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I7">
         <v>10</v>
@@ -820,10 +820,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -849,10 +849,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -878,13 +878,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I10">
         <v>30</v>

--- a/docs/excel/TurnBrand.xlsx
+++ b/docs/excel/TurnBrand.xlsx
@@ -157,59 +157,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>奖励值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵妃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/2_round</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/1_round</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/5_round</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/4_round</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/3_round</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/6_round</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励类型(1 金币 2 体力 3 侍女 4 道具 5 小游戏事件6小游戏币)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>御医</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>太监</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>太医</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贵妃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RewardId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/2_round</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/1_round</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/5_round</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/4_round</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/3_round</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/6_round</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励类型(1 金币 2 体力 3 侍女 4 道具 5 小游戏事件6小游戏币)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -630,7 +630,7 @@
   <dimension ref="A1:I304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>27</v>
@@ -667,7 +667,7 @@
         <v>32</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -713,13 +713,13 @@
         <v>21</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>30</v>
@@ -736,7 +736,7 @@
         <v>35</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -765,7 +765,7 @@
         <v>34</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -794,7 +794,7 @@
         <v>36</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -820,10 +820,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -849,10 +849,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -878,10 +878,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D10">
         <v>6</v>

--- a/docs/excel/TurnBrand.xlsx
+++ b/docs/excel/TurnBrand.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -103,14 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>uint32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,20 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>int32</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Weight</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,22 +135,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>奖励值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>贵妃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RewardId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Image/Head/2_round</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,15 +167,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>奖励类型(1 金币 2 体力 3 侍女 4 道具 5 小游戏事件6小游戏币)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>御医</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>太监</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -627,21 +597,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I304"/>
+  <dimension ref="A1:G304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="50" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.09765625" customWidth="1"/>
-    <col min="4" max="4" width="48.8984375" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="31.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -652,25 +620,19 @@
         <v>25</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -680,29 +642,23 @@
       <c r="C2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>28</v>
+      <c r="D2" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -713,215 +669,173 @@
         <v>21</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
+      <c r="D5" s="6">
+        <v>11001</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
         <v>10</v>
       </c>
-      <c r="I5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6">
+        <v>36</v>
+      </c>
+      <c r="D6" s="6">
+        <v>12001</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
       <c r="G6">
-        <v>14</v>
-      </c>
-      <c r="H6">
         <v>2</v>
       </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="D7" s="6">
+        <v>13001</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>20</v>
-      </c>
-      <c r="I7">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
+        <v>38</v>
+      </c>
+      <c r="D8" s="6">
+        <v>14001</v>
       </c>
       <c r="E8">
-        <v>10001</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
         <v>8</v>
       </c>
-      <c r="I8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="D9" s="6">
+        <v>15001</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
         <v>40</v>
       </c>
-      <c r="I9">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10">
-        <v>6</v>
+        <v>40</v>
+      </c>
+      <c r="D10" s="6">
+        <v>16001</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>20</v>
-      </c>
-      <c r="I10">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16"/>
     </row>

--- a/docs/excel/TurnBrand.xlsx
+++ b/docs/excel/TurnBrand.xlsx
@@ -600,7 +600,7 @@
   <dimension ref="A1:G304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -764,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G8">
         <v>8</v>

--- a/docs/excel/TurnBrand.xlsx
+++ b/docs/excel/TurnBrand.xlsx
@@ -600,7 +600,7 @@
   <dimension ref="A1:G304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -764,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G8">
         <v>8</v>

--- a/docs/excel/TurnBrand.xlsx
+++ b/docs/excel/TurnBrand.xlsx
@@ -600,7 +600,7 @@
   <dimension ref="A1:G304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F5" sqref="F5:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -718,7 +718,7 @@
         <v>14</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -741,10 +741,10 @@
         <v>0</v>
       </c>
       <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7">
         <v>20</v>
-      </c>
-      <c r="G7">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -764,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>8</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>40</v>
@@ -810,10 +810,10 @@
         <v>0</v>
       </c>
       <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>20</v>
-      </c>
-      <c r="G10">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">

--- a/docs/excel/TurnBrand.xlsx
+++ b/docs/excel/TurnBrand.xlsx
@@ -600,7 +600,7 @@
   <dimension ref="A1:G304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F8"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -718,7 +718,7 @@
         <v>14</v>
       </c>
       <c r="F6">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="G7">
         <v>20</v>
@@ -764,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>8</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G9">
         <v>40</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G10">
         <v>20</v>

--- a/docs/excel/TurnBrand.xlsx
+++ b/docs/excel/TurnBrand.xlsx
@@ -600,7 +600,7 @@
   <dimension ref="A1:G304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -744,7 +744,7 @@
         <v>18</v>
       </c>
       <c r="G7">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -764,10 +764,10 @@
         <v>0</v>
       </c>
       <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>10</v>
-      </c>
-      <c r="G8">
-        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">

--- a/docs/excel/TurnBrand.xlsx
+++ b/docs/excel/TurnBrand.xlsx
@@ -600,7 +600,7 @@
   <dimension ref="A1:G304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -764,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>10</v>

--- a/docs/excel/TurnBrand.xlsx
+++ b/docs/excel/TurnBrand.xlsx
@@ -600,7 +600,7 @@
   <dimension ref="A1:G304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D7" sqref="B7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -718,7 +718,7 @@
         <v>14</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>18</v>
@@ -764,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G9">
         <v>40</v>

--- a/docs/excel/TurnBrand.xlsx
+++ b/docs/excel/TurnBrand.xlsx
@@ -600,7 +600,7 @@
   <dimension ref="A1:G304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="B7:D7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -764,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G9">
         <v>40</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G10">
         <v>20</v>

--- a/docs/excel/TurnBrand.xlsx
+++ b/docs/excel/TurnBrand.xlsx
@@ -600,7 +600,7 @@
   <dimension ref="A1:G304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G7">
         <v>18</v>
@@ -764,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>10</v>
